--- a/medicine/Enfance/Hachette_Jeunesse/Hachette_Jeunesse.xlsx
+++ b/medicine/Enfance/Hachette_Jeunesse/Hachette_Jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hachette Jeunesse est le nom du département des livres pour la jeunesse de la société d'édition du groupe français Hachette Livre, département créé en 1826. 
-Les deux collections phares du département : la Bibliothèque verte et la Bibliothèque rose, ont été regroupées sous l'appellation « Jeunesse Collection », dirigée jusqu'en 1978 par Louis Mirman[1](1916-1999). 
+Les deux collections phares du département : la Bibliothèque verte et la Bibliothèque rose, ont été regroupées sous l'appellation « Jeunesse Collection », dirigée jusqu'en 1978 par Louis Mirman(1916-1999). 
 En 1997, une nouvelle organisation scinde Hachette Jeunesse en deux départements : « Hachette Jeunesse Romans », aujourd'hui  « Hachette Romans, » et « Hachette Jeunesse Images » (livres illustrés). 
 Depuis sa création, Hachette Jeunesse a compté plusieurs collections :
 </t>
@@ -514,16 +526,18 @@
           <t>Collections parues</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(liste non exhaustive)
 Les Albums roses
 Ariane
-Bibliothèque rose Illustrée (1856-1958)[2]
+Bibliothèque rose Illustrée (1856-1958)
 Bibliothèque bleue (1926-?)
 Bibliothèque Hachette (1956-1959)
 Bibliothèque rose (1971-présent)
-Bibliothèque rouge (rebaptisée Poche Rouge)[3]
+Bibliothèque rouge (rebaptisée Poche Rouge)
 Bibliothèque verte (1924-présent)
 Bibliothèque verte Diamant
 Bibliothèque verte Senior (1977-1979)
@@ -544,17 +558,43 @@
 Nouvelle collection Ségur (1949-?)
 Petite Bibliothèque blanche
 Point rouge
-Les Albums roses
-La Nouvelle Bibliothèque rose (1958-1971)
-Bibliothèque verte (1924-présent)
-Bibliothèque Hachette (1956-1959)
-Bibliothèque de la jeunesse (1924-1963)
-Idéal-Bibliothèque (1950-1987)
-Bibliothèque rose (1971-présent)
-Les Grands Livres Hachette (1955-1971)
-La Galaxie (1971 à 1980)
-Mon premier album Hachette
-(note : classement par ordre alphabétique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hachette_Jeunesse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachette_Jeunesse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Collections parues</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mon premier album Hachette</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(note : classement par ordre alphabétique)
 Babar et le Crocodile
 Bob et Line
 Canard vert
